--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H2">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N2">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q2">
-        <v>0.8286579396647534</v>
+        <v>1.037559852619111</v>
       </c>
       <c r="R2">
-        <v>0.8286579396647534</v>
+        <v>9.338038673572001</v>
       </c>
       <c r="S2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="T2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H3">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N3">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q3">
-        <v>5.218963863044683</v>
+        <v>6.142545421908001</v>
       </c>
       <c r="R3">
-        <v>5.218963863044683</v>
+        <v>55.28290879717201</v>
       </c>
       <c r="S3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="T3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H4">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N4">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q4">
-        <v>6.502399953286071</v>
+        <v>7.400744082887555</v>
       </c>
       <c r="R4">
-        <v>6.502399953286071</v>
+        <v>66.606696745988</v>
       </c>
       <c r="S4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="T4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
     </row>
   </sheetData>
